--- a/static/Bailey_Tincher_Resume.xlsx
+++ b/static/Bailey_Tincher_Resume.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bt/code/portfolio-gatsby/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21F294E-80D6-8B43-A713-7DB9B2B194C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F0DF36-E39C-D945-B2AA-3609E80394AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>AWS Backend Developer</t>
-  </si>
-  <si>
-    <t>https://adsa.cs.illinois.edu</t>
   </si>
   <si>
     <t>Integrated a full stack voice app in under 12 weeks that simplified the filing process of 40k+ claims/day, pitched the concept to a corporate executive, and sought out risk management and security teams to bring it near production</t>
@@ -301,6 +298,9 @@
   <si>
     <t>Created a machine learning model data refresh and quality assurance framework for our production trading systems</t>
   </si>
+  <si>
+    <t>https://aida.acm.illinois.edu</t>
+  </si>
 </sst>
 </file>
 
@@ -516,35 +516,38 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -555,17 +558,14 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -889,7 +889,7 @@
   <dimension ref="A1:Y987"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -904,7 +904,7 @@
   <sheetData>
     <row r="1" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="34"/>
@@ -932,11 +932,11 @@
       <c r="Y1" s="2"/>
     </row>
     <row r="2" spans="1:25" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="36" t="s">
-        <v>16</v>
+      <c r="A2" s="37" t="s">
+        <v>15</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -961,9 +961,9 @@
       <c r="Y2" s="6"/>
     </row>
     <row r="3" spans="1:25" s="13" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -988,11 +988,11 @@
       <c r="Y3" s="6"/>
     </row>
     <row r="4" spans="1:25" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -1017,12 +1017,12 @@
       <c r="Y4" s="6"/>
     </row>
     <row r="5" spans="1:25" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="35"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -1052,7 +1052,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
@@ -1085,7 +1085,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="6"/>
@@ -1115,10 +1115,10 @@
       <c r="A8" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="38" t="s">
-        <v>22</v>
+      <c r="B8" s="27" t="s">
+        <v>21</v>
       </c>
-      <c r="C8" s="38"/>
+      <c r="C8" s="27"/>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
@@ -1170,11 +1170,11 @@
       <c r="Y9" s="6"/>
     </row>
     <row r="10" spans="1:25" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="28" t="s">
-        <v>17</v>
+      <c r="A10" s="35" t="s">
+        <v>16</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
@@ -1202,17 +1202,17 @@
       <c r="A11" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="31" t="s">
-        <v>23</v>
+      <c r="B11" s="40" t="s">
+        <v>22</v>
       </c>
-      <c r="C11" s="31"/>
+      <c r="C11" s="40"/>
     </row>
     <row r="12" spans="1:25" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" s="39"/>
       <c r="D12" s="22"/>
@@ -1243,7 +1243,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="39"/>
       <c r="D13" s="22"/>
@@ -1297,11 +1297,11 @@
       <c r="Y14" s="22"/>
     </row>
     <row r="15" spans="1:25" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -1326,12 +1326,12 @@
       <c r="Y15" s="6"/>
     </row>
     <row r="16" spans="1:25" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="26" t="s">
-        <v>35</v>
+      <c r="A16" s="33" t="s">
+        <v>34</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="41" t="s">
-        <v>40</v>
+      <c r="B16" s="33"/>
+      <c r="C16" s="25" t="s">
+        <v>39</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -1357,12 +1357,12 @@
       <c r="Y16" s="6"/>
     </row>
     <row r="17" spans="1:25" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="33" t="s">
-        <v>36</v>
+      <c r="A17" s="28" t="s">
+        <v>35</v>
       </c>
-      <c r="B17" s="30"/>
+      <c r="B17" s="29"/>
       <c r="C17" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -1391,10 +1391,10 @@
       <c r="A18" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="25" t="s">
-        <v>37</v>
+      <c r="B18" s="26" t="s">
+        <v>36</v>
       </c>
-      <c r="C18" s="25"/>
+      <c r="C18" s="26"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -1422,10 +1422,10 @@
       <c r="A19" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="25" t="s">
-        <v>38</v>
+      <c r="B19" s="26" t="s">
+        <v>37</v>
       </c>
-      <c r="C19" s="25"/>
+      <c r="C19" s="26"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
@@ -1453,10 +1453,10 @@
       <c r="A20" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="25" t="s">
-        <v>39</v>
+      <c r="B20" s="26" t="s">
+        <v>38</v>
       </c>
-      <c r="C20" s="25"/>
+      <c r="C20" s="26"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -1508,12 +1508,12 @@
       <c r="Y21" s="6"/>
     </row>
     <row r="22" spans="1:25" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="26" t="s">
-        <v>24</v>
+      <c r="A22" s="33" t="s">
+        <v>23</v>
       </c>
-      <c r="B22" s="26"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="23" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -1539,10 +1539,10 @@
       <c r="Y22" s="6"/>
     </row>
     <row r="23" spans="1:25" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="33" t="s">
-        <v>25</v>
+      <c r="A23" s="28" t="s">
+        <v>24</v>
       </c>
-      <c r="B23" s="30"/>
+      <c r="B23" s="29"/>
       <c r="C23" s="1" t="s">
         <v>1</v>
       </c>
@@ -1573,10 +1573,10 @@
       <c r="A24" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="25" t="s">
-        <v>26</v>
+      <c r="B24" s="26" t="s">
+        <v>25</v>
       </c>
-      <c r="C24" s="25"/>
+      <c r="C24" s="26"/>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
@@ -1602,8 +1602,8 @@
     </row>
     <row r="25" spans="1:25" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -1631,10 +1631,10 @@
       <c r="A26" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="25" t="s">
-        <v>19</v>
+      <c r="B26" s="26" t="s">
+        <v>18</v>
       </c>
-      <c r="C26" s="25"/>
+      <c r="C26" s="26"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
       <c r="F26" s="22"/>
@@ -1686,10 +1686,10 @@
       <c r="Y27" s="2"/>
     </row>
     <row r="28" spans="1:25" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="26"/>
+      <c r="B28" s="33"/>
       <c r="C28" s="3" t="s">
         <v>5</v>
       </c>
@@ -1717,12 +1717,12 @@
       <c r="Y28" s="6"/>
     </row>
     <row r="29" spans="1:25" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="33" t="s">
+      <c r="A29" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="30"/>
+      <c r="B29" s="29"/>
       <c r="C29" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
@@ -1751,10 +1751,10 @@
       <c r="A30" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="25"/>
+      <c r="C30" s="26"/>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
       <c r="F30" s="22"/>
@@ -1782,10 +1782,10 @@
       <c r="A31" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="25" t="s">
-        <v>41</v>
+      <c r="B31" s="26" t="s">
+        <v>40</v>
       </c>
-      <c r="C31" s="25"/>
+      <c r="C31" s="26"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
@@ -1837,11 +1837,11 @@
       <c r="Y32" s="6"/>
     </row>
     <row r="33" spans="1:25" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="28" t="s">
+      <c r="A33" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
@@ -1866,12 +1866,12 @@
       <c r="Y33" s="6"/>
     </row>
     <row r="34" spans="1:25" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="29" t="s">
-        <v>28</v>
+      <c r="A34" s="41" t="s">
+        <v>27</v>
       </c>
-      <c r="B34" s="29"/>
+      <c r="B34" s="41"/>
       <c r="C34" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
@@ -1897,12 +1897,12 @@
       <c r="Y34" s="6"/>
     </row>
     <row r="35" spans="1:25" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="33" t="s">
+      <c r="A35" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="29"/>
+      <c r="C35" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
@@ -1931,10 +1931,10 @@
       <c r="A36" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="25" t="s">
-        <v>45</v>
+      <c r="B36" s="26" t="s">
+        <v>44</v>
       </c>
-      <c r="C36" s="25"/>
+      <c r="C36" s="26"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
@@ -1962,8 +1962,8 @@
       <c r="A37" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="27" t="s">
-        <v>49</v>
+      <c r="B37" s="31" t="s">
+        <v>48</v>
       </c>
       <c r="C37" s="32"/>
       <c r="D37" s="6"/>
@@ -2044,12 +2044,12 @@
       <c r="Y39" s="6"/>
     </row>
     <row r="40" spans="1:25" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="26" t="s">
-        <v>27</v>
+      <c r="A40" s="33" t="s">
+        <v>26</v>
       </c>
-      <c r="B40" s="26"/>
+      <c r="B40" s="33"/>
       <c r="C40" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
@@ -2075,12 +2075,12 @@
       <c r="Y40" s="6"/>
     </row>
     <row r="41" spans="1:25" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="33" t="s">
-        <v>30</v>
+      <c r="A41" s="28" t="s">
+        <v>29</v>
       </c>
-      <c r="B41" s="30"/>
+      <c r="B41" s="29"/>
       <c r="C41" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
@@ -2109,19 +2109,19 @@
       <c r="A42" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B42" s="38" t="s">
-        <v>50</v>
+      <c r="B42" s="27" t="s">
+        <v>49</v>
       </c>
-      <c r="C42" s="38"/>
+      <c r="C42" s="27"/>
     </row>
     <row r="43" spans="1:25" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B43" s="25" t="s">
-        <v>33</v>
+      <c r="B43" s="26" t="s">
+        <v>32</v>
       </c>
-      <c r="C43" s="25"/>
+      <c r="C43" s="26"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
@@ -2149,10 +2149,10 @@
       <c r="A44" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B44" s="25" t="s">
-        <v>34</v>
+      <c r="B44" s="26" t="s">
+        <v>33</v>
       </c>
-      <c r="C44" s="25"/>
+      <c r="C44" s="26"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
@@ -2204,10 +2204,10 @@
       <c r="Y45" s="6"/>
     </row>
     <row r="46" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="40" t="s">
-        <v>29</v>
+      <c r="A46" s="30" t="s">
+        <v>28</v>
       </c>
-      <c r="B46" s="40"/>
+      <c r="B46" s="30"/>
       <c r="C46" s="3" t="s">
         <v>5</v>
       </c>
@@ -2235,10 +2235,10 @@
       <c r="Y46" s="2"/>
     </row>
     <row r="47" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="33" t="s">
-        <v>30</v>
+      <c r="A47" s="28" t="s">
+        <v>29</v>
       </c>
-      <c r="B47" s="30"/>
+      <c r="B47" s="29"/>
       <c r="C47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2269,10 +2269,10 @@
       <c r="A48" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B48" s="25" t="s">
+      <c r="B48" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C48" s="25"/>
+      <c r="C48" s="26"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -2298,8 +2298,8 @@
     </row>
     <row r="49" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="24"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -2327,8 +2327,8 @@
       <c r="A50" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B50" s="27" t="s">
-        <v>14</v>
+      <c r="B50" s="31" t="s">
+        <v>13</v>
       </c>
       <c r="C50" s="32"/>
       <c r="D50" s="2"/>
@@ -27638,28 +27638,23 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A2:C3"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="A46:B46"/>
     <mergeCell ref="B48:C49"/>
     <mergeCell ref="B50:C51"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A2:C3"/>
-    <mergeCell ref="A15:C15"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B11:C11"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B37:C38"/>
     <mergeCell ref="A41:B41"/>
@@ -27669,6 +27664,11 @@
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A23:B23"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B42:C42"/>
     <mergeCell ref="B24:C25"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="A28:B28"/>

--- a/static/Bailey_Tincher_Resume.xlsx
+++ b/static/Bailey_Tincher_Resume.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bt/code/portfolio-gatsby/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F0DF36-E39C-D945-B2AA-3609E80394AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D37982D4-0A89-5B41-9E43-8E15BED356BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -152,9 +152,6 @@
   </si>
   <si>
     <t>Implemented a Markov Chain Tweet generator in Python that web scraped Tweets and accepted a text sentiment bias</t>
-  </si>
-  <si>
-    <t>3.74 / 4.0 GPA</t>
   </si>
   <si>
     <t>Minor in Quantum Physics</t>
@@ -300,6 +297,9 @@
   </si>
   <si>
     <t>https://aida.acm.illinois.edu</t>
+  </si>
+  <si>
+    <t>3.75 / 4.0 GPA</t>
   </si>
 </sst>
 </file>
@@ -519,30 +519,6 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -562,6 +538,30 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -889,7 +889,7 @@
   <dimension ref="A1:Y987"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -903,11 +903,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
-        <v>47</v>
+      <c r="A1" s="26" t="s">
+        <v>46</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -932,11 +932,11 @@
       <c r="Y1" s="2"/>
     </row>
     <row r="2" spans="1:25" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -961,9 +961,9 @@
       <c r="Y2" s="6"/>
     </row>
     <row r="3" spans="1:25" s="13" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -988,11 +988,11 @@
       <c r="Y3" s="6"/>
     </row>
     <row r="4" spans="1:25" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -1017,12 +1017,12 @@
       <c r="Y4" s="6"/>
     </row>
     <row r="5" spans="1:25" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="36"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -1085,7 +1085,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="6"/>
@@ -1115,10 +1115,10 @@
       <c r="A8" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="27" t="s">
-        <v>21</v>
+      <c r="B8" s="40" t="s">
+        <v>20</v>
       </c>
-      <c r="C8" s="27"/>
+      <c r="C8" s="40"/>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
@@ -1170,11 +1170,11 @@
       <c r="Y9" s="6"/>
     </row>
     <row r="10" spans="1:25" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
@@ -1202,19 +1202,19 @@
       <c r="A11" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="40" t="s">
-        <v>22</v>
+      <c r="B11" s="32" t="s">
+        <v>21</v>
       </c>
-      <c r="C11" s="40"/>
+      <c r="C11" s="32"/>
     </row>
     <row r="12" spans="1:25" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="39" t="s">
-        <v>45</v>
+      <c r="B12" s="31" t="s">
+        <v>44</v>
       </c>
-      <c r="C12" s="39"/>
+      <c r="C12" s="31"/>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
@@ -1242,10 +1242,10 @@
       <c r="A13" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="39" t="s">
-        <v>46</v>
+      <c r="B13" s="31" t="s">
+        <v>45</v>
       </c>
-      <c r="C13" s="39"/>
+      <c r="C13" s="31"/>
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
       <c r="F13" s="22"/>
@@ -1271,8 +1271,8 @@
     </row>
     <row r="14" spans="1:25" s="13" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="20"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
       <c r="F14" s="22"/>
@@ -1297,11 +1297,11 @@
       <c r="Y14" s="22"/>
     </row>
     <row r="15" spans="1:25" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -1326,12 +1326,12 @@
       <c r="Y15" s="6"/>
     </row>
     <row r="16" spans="1:25" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="33" t="s">
-        <v>34</v>
+      <c r="A16" s="39" t="s">
+        <v>33</v>
       </c>
-      <c r="B16" s="33"/>
+      <c r="B16" s="39"/>
       <c r="C16" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -1357,12 +1357,12 @@
       <c r="Y16" s="6"/>
     </row>
     <row r="17" spans="1:25" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="28" t="s">
-        <v>35</v>
+      <c r="A17" s="33" t="s">
+        <v>34</v>
       </c>
-      <c r="B17" s="29"/>
+      <c r="B17" s="34"/>
       <c r="C17" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -1391,10 +1391,10 @@
       <c r="A18" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="26" t="s">
-        <v>36</v>
+      <c r="B18" s="36" t="s">
+        <v>35</v>
       </c>
-      <c r="C18" s="26"/>
+      <c r="C18" s="36"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -1422,10 +1422,10 @@
       <c r="A19" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="26" t="s">
-        <v>37</v>
+      <c r="B19" s="36" t="s">
+        <v>36</v>
       </c>
-      <c r="C19" s="26"/>
+      <c r="C19" s="36"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
@@ -1453,10 +1453,10 @@
       <c r="A20" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="26" t="s">
-        <v>38</v>
+      <c r="B20" s="36" t="s">
+        <v>37</v>
       </c>
-      <c r="C20" s="26"/>
+      <c r="C20" s="36"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -1508,12 +1508,12 @@
       <c r="Y21" s="6"/>
     </row>
     <row r="22" spans="1:25" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="33" t="s">
-        <v>23</v>
+      <c r="A22" s="39" t="s">
+        <v>22</v>
       </c>
-      <c r="B22" s="33"/>
+      <c r="B22" s="39"/>
       <c r="C22" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -1539,10 +1539,10 @@
       <c r="Y22" s="6"/>
     </row>
     <row r="23" spans="1:25" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="28" t="s">
-        <v>24</v>
+      <c r="A23" s="33" t="s">
+        <v>23</v>
       </c>
-      <c r="B23" s="29"/>
+      <c r="B23" s="34"/>
       <c r="C23" s="1" t="s">
         <v>1</v>
       </c>
@@ -1573,10 +1573,10 @@
       <c r="A24" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="26" t="s">
-        <v>25</v>
+      <c r="B24" s="36" t="s">
+        <v>24</v>
       </c>
-      <c r="C24" s="26"/>
+      <c r="C24" s="36"/>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
@@ -1602,8 +1602,8 @@
     </row>
     <row r="25" spans="1:25" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -1631,10 +1631,10 @@
       <c r="A26" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="26"/>
+      <c r="C26" s="36"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
       <c r="F26" s="22"/>
@@ -1686,10 +1686,10 @@
       <c r="Y27" s="2"/>
     </row>
     <row r="28" spans="1:25" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="33" t="s">
+      <c r="A28" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="33"/>
+      <c r="B28" s="39"/>
       <c r="C28" s="3" t="s">
         <v>5</v>
       </c>
@@ -1717,12 +1717,12 @@
       <c r="Y28" s="6"/>
     </row>
     <row r="29" spans="1:25" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="29"/>
+      <c r="B29" s="34"/>
       <c r="C29" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
@@ -1751,10 +1751,10 @@
       <c r="A30" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="26"/>
+      <c r="C30" s="36"/>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
       <c r="F30" s="22"/>
@@ -1782,10 +1782,10 @@
       <c r="A31" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="26" t="s">
-        <v>40</v>
+      <c r="B31" s="36" t="s">
+        <v>39</v>
       </c>
-      <c r="C31" s="26"/>
+      <c r="C31" s="36"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
@@ -1837,11 +1837,11 @@
       <c r="Y32" s="6"/>
     </row>
     <row r="33" spans="1:25" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="35" t="s">
+      <c r="A33" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
@@ -1867,11 +1867,11 @@
     </row>
     <row r="34" spans="1:25" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B34" s="41"/>
       <c r="C34" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
@@ -1897,12 +1897,12 @@
       <c r="Y34" s="6"/>
     </row>
     <row r="35" spans="1:25" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="34"/>
+      <c r="C35" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B35" s="29"/>
-      <c r="C35" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
@@ -1931,10 +1931,10 @@
       <c r="A36" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="26" t="s">
-        <v>44</v>
+      <c r="B36" s="36" t="s">
+        <v>43</v>
       </c>
-      <c r="C36" s="26"/>
+      <c r="C36" s="36"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
@@ -1962,10 +1962,10 @@
       <c r="A37" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="31" t="s">
-        <v>48</v>
+      <c r="B37" s="37" t="s">
+        <v>47</v>
       </c>
-      <c r="C37" s="32"/>
+      <c r="C37" s="38"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
@@ -1991,8 +1991,8 @@
     </row>
     <row r="38" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
@@ -2044,10 +2044,10 @@
       <c r="Y39" s="6"/>
     </row>
     <row r="40" spans="1:25" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="33" t="s">
-        <v>26</v>
+      <c r="A40" s="39" t="s">
+        <v>25</v>
       </c>
-      <c r="B40" s="33"/>
+      <c r="B40" s="39"/>
       <c r="C40" s="1" t="s">
         <v>14</v>
       </c>
@@ -2075,12 +2075,12 @@
       <c r="Y40" s="6"/>
     </row>
     <row r="41" spans="1:25" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="28" t="s">
-        <v>29</v>
+      <c r="A41" s="33" t="s">
+        <v>28</v>
       </c>
-      <c r="B41" s="29"/>
+      <c r="B41" s="34"/>
       <c r="C41" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
@@ -2109,19 +2109,19 @@
       <c r="A42" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B42" s="27" t="s">
-        <v>49</v>
+      <c r="B42" s="40" t="s">
+        <v>48</v>
       </c>
-      <c r="C42" s="27"/>
+      <c r="C42" s="40"/>
     </row>
     <row r="43" spans="1:25" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B43" s="26" t="s">
-        <v>32</v>
+      <c r="B43" s="36" t="s">
+        <v>31</v>
       </c>
-      <c r="C43" s="26"/>
+      <c r="C43" s="36"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
@@ -2149,10 +2149,10 @@
       <c r="A44" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B44" s="26" t="s">
-        <v>33</v>
+      <c r="B44" s="36" t="s">
+        <v>32</v>
       </c>
-      <c r="C44" s="26"/>
+      <c r="C44" s="36"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
@@ -2204,10 +2204,10 @@
       <c r="Y45" s="6"/>
     </row>
     <row r="46" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="30" t="s">
-        <v>28</v>
+      <c r="A46" s="35" t="s">
+        <v>27</v>
       </c>
-      <c r="B46" s="30"/>
+      <c r="B46" s="35"/>
       <c r="C46" s="3" t="s">
         <v>5</v>
       </c>
@@ -2235,10 +2235,10 @@
       <c r="Y46" s="2"/>
     </row>
     <row r="47" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="28" t="s">
-        <v>29</v>
+      <c r="A47" s="33" t="s">
+        <v>28</v>
       </c>
-      <c r="B47" s="29"/>
+      <c r="B47" s="34"/>
       <c r="C47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2269,10 +2269,10 @@
       <c r="A48" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B48" s="26" t="s">
+      <c r="B48" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C48" s="26"/>
+      <c r="C48" s="36"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -2298,8 +2298,8 @@
     </row>
     <row r="49" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="24"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="26"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="36"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -2327,10 +2327,10 @@
       <c r="A50" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B50" s="31" t="s">
+      <c r="B50" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="32"/>
+      <c r="C50" s="38"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -2356,8 +2356,8 @@
     </row>
     <row r="51" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="24"/>
-      <c r="B51" s="32"/>
-      <c r="C51" s="32"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="38"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -27638,16 +27638,18 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A2:C3"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="A46:B46"/>
     <mergeCell ref="B48:C49"/>
@@ -27664,18 +27666,16 @@
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A23:B23"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A2:C3"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C22" r:id="rId1" xr:uid="{73777E77-4769-A947-A751-E70996666F6E}"/>
